--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tg-Asgr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tg-Asgr1.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tg</t>
+  </si>
+  <si>
+    <t>Asgr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tg</t>
-  </si>
-  <si>
-    <t>Asgr1</t>
   </si>
 </sst>
 </file>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02541033333333333</v>
+        <v>0.06350299999999999</v>
       </c>
       <c r="H2">
-        <v>0.07623099999999999</v>
+        <v>0.190509</v>
       </c>
       <c r="I2">
-        <v>0.05367110317558661</v>
+        <v>0.07389901488151114</v>
       </c>
       <c r="J2">
-        <v>0.05367110317558661</v>
+        <v>0.07389901488151115</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.074541666666667</v>
+        <v>0.1132116666666667</v>
       </c>
       <c r="N2">
-        <v>6.223625</v>
+        <v>0.339635</v>
       </c>
       <c r="O2">
-        <v>0.88934630679695</v>
+        <v>0.03977482461531544</v>
       </c>
       <c r="P2">
-        <v>0.8893463067969501</v>
+        <v>0.03977482461531544</v>
       </c>
       <c r="Q2">
-        <v>0.05271479526388888</v>
+        <v>0.007189280468333332</v>
       </c>
       <c r="R2">
-        <v>0.474433157375</v>
+        <v>0.064703524215</v>
       </c>
       <c r="S2">
-        <v>0.04773219739092601</v>
+        <v>0.002939320356156691</v>
       </c>
       <c r="T2">
-        <v>0.04773219739092601</v>
+        <v>0.002939320356156692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,46 +599,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02541033333333333</v>
+        <v>0.06350299999999999</v>
       </c>
       <c r="H3">
-        <v>0.07623099999999999</v>
+        <v>0.190509</v>
       </c>
       <c r="I3">
-        <v>0.05367110317558661</v>
+        <v>0.07389901488151114</v>
       </c>
       <c r="J3">
-        <v>0.05367110317558661</v>
+        <v>0.07389901488151115</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1296466666666667</v>
+        <v>2.074541666666666</v>
       </c>
       <c r="N3">
-        <v>0.38894</v>
+        <v>6.223624999999999</v>
       </c>
       <c r="O3">
-        <v>0.05557891945057836</v>
+        <v>0.7288518346062464</v>
       </c>
       <c r="P3">
-        <v>0.05557891945057836</v>
+        <v>0.7288518346062464</v>
       </c>
       <c r="Q3">
-        <v>0.003294365015555555</v>
+        <v>0.1317396194583333</v>
       </c>
       <c r="R3">
-        <v>0.02964928514</v>
+        <v>1.185656575125</v>
       </c>
       <c r="S3">
-        <v>0.002982981920219608</v>
+        <v>0.0538614325719837</v>
       </c>
       <c r="T3">
-        <v>0.002982981920219608</v>
+        <v>0.0538614325719837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,60 +661,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02541033333333333</v>
+        <v>0.06350299999999999</v>
       </c>
       <c r="H4">
-        <v>0.07623099999999999</v>
+        <v>0.190509</v>
       </c>
       <c r="I4">
-        <v>0.05367110317558661</v>
+        <v>0.07389901488151114</v>
       </c>
       <c r="J4">
-        <v>0.05367110317558661</v>
+        <v>0.07389901488151115</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1284706666666666</v>
+        <v>0.6418136666666666</v>
       </c>
       <c r="N4">
-        <v>0.385412</v>
+        <v>1.925441</v>
       </c>
       <c r="O4">
-        <v>0.0550747737524716</v>
+        <v>0.225489357934658</v>
       </c>
       <c r="P4">
-        <v>0.05507477375247161</v>
+        <v>0.225489357934658</v>
       </c>
       <c r="Q4">
-        <v>0.003264482463555555</v>
+        <v>0.04075709327433332</v>
       </c>
       <c r="R4">
-        <v>0.02938034217199999</v>
+        <v>0.366813839469</v>
       </c>
       <c r="S4">
-        <v>0.002955923864440993</v>
+        <v>0.01666344141763568</v>
       </c>
       <c r="T4">
-        <v>0.002955923864440993</v>
+        <v>0.01666344141763569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,40 +729,40 @@
         <v>0.190509</v>
       </c>
       <c r="I5">
-        <v>0.1341295299140485</v>
+        <v>0.07389901488151114</v>
       </c>
       <c r="J5">
-        <v>0.1341295299140485</v>
+        <v>0.07389901488151115</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.074541666666667</v>
+        <v>0.01674766666666667</v>
       </c>
       <c r="N5">
-        <v>6.223625</v>
+        <v>0.050243</v>
       </c>
       <c r="O5">
-        <v>0.88934630679695</v>
+        <v>0.005883982843780215</v>
       </c>
       <c r="P5">
-        <v>0.8893463067969501</v>
+        <v>0.005883982843780215</v>
       </c>
       <c r="Q5">
-        <v>0.1317396194583333</v>
+        <v>0.001063527076333333</v>
       </c>
       <c r="R5">
-        <v>1.185656575125</v>
+        <v>0.009571743686999999</v>
       </c>
       <c r="S5">
-        <v>0.11928760206147</v>
+        <v>0.0004348205357350704</v>
       </c>
       <c r="T5">
-        <v>0.1192876020614701</v>
+        <v>0.0004348205357350704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06350299999999999</v>
+        <v>0.6127779999999999</v>
       </c>
       <c r="H6">
-        <v>0.190509</v>
+        <v>1.838334</v>
       </c>
       <c r="I6">
-        <v>0.1341295299140485</v>
+        <v>0.7130952953571112</v>
       </c>
       <c r="J6">
-        <v>0.1341295299140485</v>
+        <v>0.7130952953571114</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1296466666666667</v>
+        <v>0.1132116666666667</v>
       </c>
       <c r="N6">
-        <v>0.38894</v>
+        <v>0.339635</v>
       </c>
       <c r="O6">
-        <v>0.05557891945057836</v>
+        <v>0.03977482461531544</v>
       </c>
       <c r="P6">
-        <v>0.05557891945057836</v>
+        <v>0.03977482461531544</v>
       </c>
       <c r="Q6">
-        <v>0.008232952273333332</v>
+        <v>0.06937361867666667</v>
       </c>
       <c r="R6">
-        <v>0.07409657046</v>
+        <v>0.62436256809</v>
       </c>
       <c r="S6">
-        <v>0.00745477433903684</v>
+        <v>0.02836324030683566</v>
       </c>
       <c r="T6">
-        <v>0.007454774339036841</v>
+        <v>0.02836324030683567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,72 +832,72 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06350299999999999</v>
+        <v>0.6127779999999999</v>
       </c>
       <c r="H7">
-        <v>0.190509</v>
+        <v>1.838334</v>
       </c>
       <c r="I7">
-        <v>0.1341295299140485</v>
+        <v>0.7130952953571112</v>
       </c>
       <c r="J7">
-        <v>0.1341295299140485</v>
+        <v>0.7130952953571114</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1284706666666666</v>
+        <v>2.074541666666666</v>
       </c>
       <c r="N7">
-        <v>0.385412</v>
+        <v>6.223624999999999</v>
       </c>
       <c r="O7">
-        <v>0.0550747737524716</v>
+        <v>0.7288518346062464</v>
       </c>
       <c r="P7">
-        <v>0.05507477375247161</v>
+        <v>0.7288518346062464</v>
       </c>
       <c r="Q7">
-        <v>0.008158272745333331</v>
+        <v>1.271233493416666</v>
       </c>
       <c r="R7">
-        <v>0.07342445470799999</v>
+        <v>11.44110144075</v>
       </c>
       <c r="S7">
-        <v>0.007387153513541591</v>
+        <v>0.5197408142701136</v>
       </c>
       <c r="T7">
-        <v>0.007387153513541592</v>
+        <v>0.5197408142701138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.280452</v>
+        <v>0.6127779999999999</v>
       </c>
       <c r="H8">
-        <v>0.8413560000000001</v>
+        <v>1.838334</v>
       </c>
       <c r="I8">
-        <v>0.5923640603350194</v>
+        <v>0.7130952953571112</v>
       </c>
       <c r="J8">
-        <v>0.5923640603350193</v>
+        <v>0.7130952953571114</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,39 +927,39 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.074541666666667</v>
+        <v>0.6418136666666666</v>
       </c>
       <c r="N8">
-        <v>6.223625</v>
+        <v>1.925441</v>
       </c>
       <c r="O8">
-        <v>0.88934630679695</v>
+        <v>0.225489357934658</v>
       </c>
       <c r="P8">
-        <v>0.8893463067969501</v>
+        <v>0.225489357934658</v>
       </c>
       <c r="Q8">
-        <v>0.5818093595000001</v>
+        <v>0.3932892950326666</v>
       </c>
       <c r="R8">
-        <v>5.236284235500001</v>
+        <v>3.539603655294</v>
       </c>
       <c r="S8">
-        <v>0.5268167893381952</v>
+        <v>0.1607954002963003</v>
       </c>
       <c r="T8">
-        <v>0.5268167893381952</v>
+        <v>0.1607954002963004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.280452</v>
+        <v>0.6127779999999999</v>
       </c>
       <c r="H9">
-        <v>0.8413560000000001</v>
+        <v>1.838334</v>
       </c>
       <c r="I9">
-        <v>0.5923640603350194</v>
+        <v>0.7130952953571112</v>
       </c>
       <c r="J9">
-        <v>0.5923640603350193</v>
+        <v>0.7130952953571114</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1296466666666667</v>
+        <v>0.01674766666666667</v>
       </c>
       <c r="N9">
-        <v>0.38894</v>
+        <v>0.050243</v>
       </c>
       <c r="O9">
-        <v>0.05557891945057836</v>
+        <v>0.005883982843780215</v>
       </c>
       <c r="P9">
-        <v>0.05557891945057836</v>
+        <v>0.005883982843780215</v>
       </c>
       <c r="Q9">
-        <v>0.03635966696</v>
+        <v>0.01026260168466667</v>
       </c>
       <c r="R9">
-        <v>0.3272370026400001</v>
+        <v>0.092363415162</v>
       </c>
       <c r="S9">
-        <v>0.03292295439477758</v>
+        <v>0.004195840483861628</v>
       </c>
       <c r="T9">
-        <v>0.03292295439477758</v>
+        <v>0.004195840483861629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,14 +1018,14 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.280452</v>
+        <v>0.1830403333333333</v>
       </c>
       <c r="H10">
-        <v>0.8413560000000001</v>
+        <v>0.549121</v>
       </c>
       <c r="I10">
-        <v>0.5923640603350194</v>
+        <v>0.2130056897613776</v>
       </c>
       <c r="J10">
-        <v>0.5923640603350193</v>
+        <v>0.2130056897613776</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,60 +1051,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1284706666666666</v>
+        <v>0.1132116666666667</v>
       </c>
       <c r="N10">
-        <v>0.385412</v>
+        <v>0.339635</v>
       </c>
       <c r="O10">
-        <v>0.0550747737524716</v>
+        <v>0.03977482461531544</v>
       </c>
       <c r="P10">
-        <v>0.05507477375247161</v>
+        <v>0.03977482461531544</v>
       </c>
       <c r="Q10">
-        <v>0.036029855408</v>
+        <v>0.02072230120388889</v>
       </c>
       <c r="R10">
-        <v>0.324268698672</v>
+        <v>0.186500710835</v>
       </c>
       <c r="S10">
-        <v>0.03262431660204663</v>
+        <v>0.008472263952323086</v>
       </c>
       <c r="T10">
-        <v>0.03262431660204663</v>
+        <v>0.008472263952323086</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.10408</v>
+        <v>0.1830403333333333</v>
       </c>
       <c r="H11">
-        <v>0.31224</v>
+        <v>0.549121</v>
       </c>
       <c r="I11">
-        <v>0.2198353065753456</v>
+        <v>0.2130056897613776</v>
       </c>
       <c r="J11">
-        <v>0.2198353065753455</v>
+        <v>0.2130056897613776</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,122 +1113,122 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.074541666666667</v>
+        <v>2.074541666666666</v>
       </c>
       <c r="N11">
-        <v>6.223625</v>
+        <v>6.223624999999999</v>
       </c>
       <c r="O11">
-        <v>0.88934630679695</v>
+        <v>0.7288518346062464</v>
       </c>
       <c r="P11">
-        <v>0.8893463067969501</v>
+        <v>0.7288518346062464</v>
       </c>
       <c r="Q11">
-        <v>0.2159182966666667</v>
+        <v>0.3797247981805555</v>
       </c>
       <c r="R11">
-        <v>1.94326467</v>
+        <v>3.417523183624999</v>
       </c>
       <c r="S11">
-        <v>0.1955097180063588</v>
+        <v>0.155249587764149</v>
       </c>
       <c r="T11">
-        <v>0.1955097180063588</v>
+        <v>0.155249587764149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.10408</v>
+        <v>0.1830403333333333</v>
       </c>
       <c r="H12">
-        <v>0.31224</v>
+        <v>0.549121</v>
       </c>
       <c r="I12">
-        <v>0.2198353065753456</v>
+        <v>0.2130056897613776</v>
       </c>
       <c r="J12">
-        <v>0.2198353065753455</v>
+        <v>0.2130056897613776</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1296466666666667</v>
+        <v>0.6418136666666666</v>
       </c>
       <c r="N12">
-        <v>0.38894</v>
+        <v>1.925441</v>
       </c>
       <c r="O12">
-        <v>0.05557891945057836</v>
+        <v>0.225489357934658</v>
       </c>
       <c r="P12">
-        <v>0.05557891945057836</v>
+        <v>0.225489357934658</v>
       </c>
       <c r="Q12">
-        <v>0.01349362506666667</v>
+        <v>0.1174777874845555</v>
       </c>
       <c r="R12">
-        <v>0.1214426256</v>
+        <v>1.057300087361</v>
       </c>
       <c r="S12">
-        <v>0.01221820879654433</v>
+        <v>0.04803051622072198</v>
       </c>
       <c r="T12">
-        <v>0.01221820879654433</v>
+        <v>0.04803051622072199</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.10408</v>
+        <v>0.1830403333333333</v>
       </c>
       <c r="H13">
-        <v>0.31224</v>
+        <v>0.549121</v>
       </c>
       <c r="I13">
-        <v>0.2198353065753456</v>
+        <v>0.2130056897613776</v>
       </c>
       <c r="J13">
-        <v>0.2198353065753455</v>
+        <v>0.2130056897613776</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1284706666666666</v>
+        <v>0.01674766666666667</v>
       </c>
       <c r="N13">
-        <v>0.385412</v>
+        <v>0.050243</v>
       </c>
       <c r="O13">
-        <v>0.0550747737524716</v>
+        <v>0.005883982843780215</v>
       </c>
       <c r="P13">
-        <v>0.05507477375247161</v>
+        <v>0.005883982843780215</v>
       </c>
       <c r="Q13">
-        <v>0.01337122698666666</v>
+        <v>0.003065498489222222</v>
       </c>
       <c r="R13">
-        <v>0.12034104288</v>
+        <v>0.027589486403</v>
       </c>
       <c r="S13">
-        <v>0.01210737977244239</v>
+        <v>0.001253321824183517</v>
       </c>
       <c r="T13">
-        <v>0.01210737977244239</v>
+        <v>0.001253321824183517</v>
       </c>
     </row>
   </sheetData>
